--- a/medicine/Enfance/Elizabeth_Foreman_Lewis/Elizabeth_Foreman_Lewis.xlsx
+++ b/medicine/Enfance/Elizabeth_Foreman_Lewis/Elizabeth_Foreman_Lewis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elizabeth Foreman Lewis, née le 24 mai 1892 et morte le 7 août 1958, est une écrivaine américaine pour enfants. Elle a reçu la médaille Newbery de 1933 et un Lewis Carroll Shelf Award.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elizabeth Foreman est née à Baltimore, dans le Maryland, le 24 mai 1892. Elle étudie l'art au Maryland Institute of Fine Arts[1] de 1909 à 1910.
-Puis, elle fréquente une école de secrétariat à Baltimore de 1916 à 1917, la préparant à un voyage en Chine pour le Methodist Women's Board (Comité des Femmes Méthodistes). En 1917, elle reçoit une instruction religieuse au Bible Seminary à New York[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elizabeth Foreman est née à Baltimore, dans le Maryland, le 24 mai 1892. Elle étudie l'art au Maryland Institute of Fine Arts de 1909 à 1910.
+Puis, elle fréquente une école de secrétariat à Baltimore de 1916 à 1917, la préparant à un voyage en Chine pour le Methodist Women's Board (Comité des Femmes Méthodistes). En 1917, elle reçoit une instruction religieuse au Bible Seminary à New York.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après ses études, Foreman devient missionnaire méthodiste et enseignante en Chine, d'abord en tant que trésorière de mission déléguée pour la Women's Foreign Missionary Society à Shanghai (1917-1918). Au cours des deux années suivantes, elle est enseignante dans les écoles de Nanjing et surveillante de district des écoles de Chongqing. À Nanjing, elle enseigne dans deux écoles – un internat pour filles et une académie pour garçons. C'est aussi en Chine qu'elle rencontre son mari, John Abraham Lewis, qui est également missionnaire méthodiste dans le Haut Yang-tsé pendant de nombreuses années. Ils se marient en 1921. Ils ont un fils, John Fulton Lewis, qui grandit pour devenir rédacteur en chef de journal et auteur[1].
-Après plusieurs années, pour cause de maladie, elle doit quitter la Chine[3]. De retour aux États-Unis, elle s'inspire de ses expériences chinoises pour écrire des romans et des nouvelles. Son premier livre, Young Fu of the Upper Yangtze, basé sur sa période de directrice d'écoles à Chungking (Chongqing), remporte la médaille Newbery[2] de 1933 et le Lewis Carroll Shelf Award en 1960.
-Elle meurt à Baltimore le 7 août 1958[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après ses études, Foreman devient missionnaire méthodiste et enseignante en Chine, d'abord en tant que trésorière de mission déléguée pour la Women's Foreign Missionary Society à Shanghai (1917-1918). Au cours des deux années suivantes, elle est enseignante dans les écoles de Nanjing et surveillante de district des écoles de Chongqing. À Nanjing, elle enseigne dans deux écoles – un internat pour filles et une académie pour garçons. C'est aussi en Chine qu'elle rencontre son mari, John Abraham Lewis, qui est également missionnaire méthodiste dans le Haut Yang-tsé pendant de nombreuses années. Ils se marient en 1921. Ils ont un fils, John Fulton Lewis, qui grandit pour devenir rédacteur en chef de journal et auteur.
+Après plusieurs années, pour cause de maladie, elle doit quitter la Chine. De retour aux États-Unis, elle s'inspire de ses expériences chinoises pour écrire des romans et des nouvelles. Son premier livre, Young Fu of the Upper Yangtze, basé sur sa période de directrice d'écoles à Chungking (Chongqing), remporte la médaille Newbery de 1933 et le Lewis Carroll Shelf Award en 1960.
+Elle meurt à Baltimore le 7 août 1958.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Young Fu of the Upper Yangtze, Holt, Rinehart and Winston, 1932
 (en) Ho-Ming, Girl of New China, Winston, 1934
